--- a/DATA_goal/Junction_Flooding_237.xlsx
+++ b/DATA_goal/Junction_Flooding_237.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41669.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.55</v>
+        <v>0.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>31.14</v>
+        <v>3.11</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.6</v>
+        <v>2.36</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.65</v>
+        <v>3.36</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.35</v>
+        <v>1.14</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.05</v>
+        <v>1.01</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>165.45</v>
+        <v>16.54</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.45</v>
+        <v>3.15</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.96</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.42</v>
+        <v>3.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41669.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.1</v>
+        <v>3.91</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.12</v>
+        <v>3.11</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>52.83</v>
+        <v>5.28</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.76</v>
+        <v>2.18</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.85</v>
+        <v>1.38</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.55</v>
+        <v>1.66</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.82</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>206.7</v>
+        <v>20.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.31</v>
+        <v>3.93</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.04</v>
+        <v>2.6</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.19</v>
+        <v>2.62</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.12</v>
+        <v>1.61</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>48.41</v>
+        <v>4.84</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41669.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.44</v>
+        <v>1.84</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.99</v>
+        <v>2.9</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.85</v>
+        <v>0.58</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>93.41</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>5.78</v>
-      </c>
       <c r="AD4" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.76</v>
+        <v>2.68</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41669.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.05</v>
+        <v>0.7</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P5" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>22.98</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>7.81</v>
-      </c>
       <c r="Q5" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>77.36</v>
+        <v>7.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.85</v>
+        <v>0.48</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.02</v>
+        <v>2.1</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41669.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD6" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>28.18</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.62</v>
-      </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41669.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>5.7</v>
-      </c>
       <c r="M7" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>70.45999999999999</v>
+        <v>7.05</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41669.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>23.68</v>
+        <v>2.37</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>51.66</v>
+        <v>5.17</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>42.33</v>
+        <v>4.23</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>67.95999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>28.74</v>
+        <v>2.87</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>19.02</v>
+        <v>1.9</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>20.71</v>
+        <v>2.07</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>21.97</v>
+        <v>2.2</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>26.47</v>
+        <v>2.65</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>275.37</v>
+        <v>27.54</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>51.85</v>
+        <v>5.19</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>34.96</v>
+        <v>3.5</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>33.9</v>
+        <v>3.39</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>21.71</v>
+        <v>2.17</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>61.74</v>
+        <v>6.17</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41669.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>22.34</v>
+        <v>2.23</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>16.7</v>
+        <v>1.67</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>48.73</v>
+        <v>4.87</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>39.95</v>
+        <v>4</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.55</v>
+        <v>1.76</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>68.98999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>27.11</v>
+        <v>2.71</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>19.54</v>
+        <v>1.95</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>20.72</v>
+        <v>2.07</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>259.36</v>
+        <v>25.94</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>49.02</v>
+        <v>4.9</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>33.06</v>
+        <v>3.31</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>33.54</v>
+        <v>3.35</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>20.49</v>
+        <v>2.05</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>62.79</v>
+        <v>6.28</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>9.15</v>
+        <v>0.92</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41669.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.3</v>
+        <v>1.13</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>33.05</v>
+        <v>3.31</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>27.02</v>
+        <v>2.7</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>48.72</v>
+        <v>4.87</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>173.52</v>
+        <v>17.35</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>33.29</v>
+        <v>3.33</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>22.41</v>
+        <v>2.24</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>23.34</v>
+        <v>2.33</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>44.36</v>
+        <v>4.44</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_237.xlsx
+++ b/DATA_goal/Junction_Flooding_237.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44918.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.03</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.98</v>
+        <v>39.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.19</v>
+        <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.74</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.65</v>
+        <v>46.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.21</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.68</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.45</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>21.58</v>
+        <v>215.82</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.08</v>
+        <v>40.75</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.68</v>
+        <v>26.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.63</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.18</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.12</v>
+        <v>41.23</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44918.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.26</v>
+        <v>22.58</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.25</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.89</v>
+        <v>48.9</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.98</v>
+        <v>39.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.77</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.75</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.73</v>
+        <v>27.34</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.95</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.96</v>
+        <v>19.58</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.53</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.51</v>
+        <v>25.07</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.25</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.16</v>
+        <v>261.65</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.94</v>
+        <v>49.42</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.3</v>
+        <v>32.98</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.92</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.31</v>
+        <v>33.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.92</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.16</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.41</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.14</v>
+        <v>61.36</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44918.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.75</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.8</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.72</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.33</v>
+        <v>33.3</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.71</v>
+        <v>107.15</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.18</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W4" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>1.4</v>
       </c>
-      <c r="X4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.66</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.04</v>
+        <v>30.44</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44918.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.5</v>
+        <v>25.03</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.3</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.53</v>
+        <v>35.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1</v>
+        <v>10.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="Q5" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13</v>
+        <v>130.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.52</v>
+        <v>25.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.8</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.7</v>
+        <v>16.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.19</v>
+        <v>31.92</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_237.xlsx
+++ b/DATA_goal/Junction_Flooding_237.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44918.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.74</v>
+        <v>18.737</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.53</v>
+        <v>12.527</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.03</v>
+        <v>4.029</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>39.83</v>
+        <v>39.827</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.74</v>
+        <v>14.745</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.5</v>
+        <v>46.499</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.21</v>
+        <v>14.208</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.68</v>
+        <v>15.679</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.31</v>
+        <v>16.314</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.71</v>
+        <v>4.706</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.45</v>
+        <v>20.445</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.44</v>
+        <v>3.441</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.244</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>215.82</v>
+        <v>215.823</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.75</v>
+        <v>40.754</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.79</v>
+        <v>26.795</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.63</v>
+        <v>13.632</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.069</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.63</v>
+        <v>23.634</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.74</v>
+        <v>12.744</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.18</v>
+        <v>16.181</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.455</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>41.23</v>
+        <v>41.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.42</v>
+        <v>7.422</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>16.92</v>
@@ -762,100 +762,100 @@
         <v>22.58</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.25</v>
+        <v>16.247</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.02</v>
+        <v>2.017</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>48.9</v>
+        <v>48.902</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>39.78</v>
+        <v>39.783</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.77</v>
+        <v>17.769</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>67.48999999999999</v>
+        <v>67.491</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.34</v>
+        <v>27.341</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.95</v>
+        <v>11.946</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.68</v>
+        <v>17.681</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.58</v>
+        <v>19.578</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.53</v>
+        <v>20.533</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.68</v>
+        <v>5.676</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>17.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.07</v>
+        <v>25.068</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.06</v>
+        <v>15.058</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.601</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.252</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>261.65</v>
+        <v>261.649</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>49.42</v>
+        <v>49.416</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>16.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>32.98</v>
+        <v>32.975</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.18</v>
+        <v>17.177</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>2.92</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.06</v>
+        <v>33.059</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.41</v>
+        <v>14.407</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.92</v>
+        <v>12.916</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.16</v>
+        <v>15.163</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.41</v>
+        <v>20.407</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>61.36</v>
+        <v>61.356</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.1</v>
+        <v>9.097</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.39</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="4">
@@ -863,52 +863,52 @@
         <v>44918.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.609</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.75</v>
+        <v>6.753</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.094</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.8</v>
+        <v>20.803</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.72</v>
+        <v>16.716</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.3</v>
+        <v>33.304</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.63</v>
+        <v>11.635</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.03</v>
+        <v>5.026</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.31</v>
+        <v>7.311</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.34</v>
+        <v>8.343</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.42</v>
+        <v>2.419</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.6</v>
+        <v>10.601</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.56</v>
+        <v>6.559</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.99</v>
@@ -917,49 +917,49 @@
         <v>0.62</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>107.15</v>
+        <v>107.147</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.18</v>
+        <v>21.184</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14</v>
+        <v>13.996</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.25</v>
+        <v>7.246</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.4</v>
+        <v>1.399</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.59</v>
+        <v>15.592</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.58</v>
+        <v>5.578</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.53</v>
+        <v>6.534</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.66</v>
+        <v>8.662000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.44</v>
+        <v>30.438</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.8</v>
+        <v>3.802</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.68</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44918.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_237.xlsx
+++ b/DATA_goal/Junction_Flooding_237.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,100 +970,204 @@
         <v>11.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.32</v>
+        <v>8.318</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.03</v>
+        <v>25.026</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.3</v>
+        <v>20.304</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.07</v>
+        <v>9.073</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.31</v>
+        <v>35.308</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.11</v>
+        <v>6.106</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.972</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.05</v>
+        <v>10.047</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.54</v>
+        <v>10.538</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.9</v>
+        <v>2.898</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.76</v>
+        <v>12.756</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.74</v>
+        <v>7.741</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.572</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.01</v>
+        <v>130.007</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>25.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.8</v>
+        <v>16.799</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.789</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.5</v>
+        <v>1.497</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.97</v>
+        <v>16.974</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.61</v>
+        <v>6.607</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.75</v>
+        <v>7.752</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.49</v>
+        <v>10.489</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>31.921</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.624</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>10.413</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44918.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>10.41</v>
+      <c r="E6" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_237.xlsx
+++ b/DATA_goal/Junction_Flooding_237.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,204 +970,100 @@
         <v>11.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.318</v>
+        <v>8.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.026</v>
+        <v>25.03</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.304</v>
+        <v>20.3</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.073</v>
+        <v>9.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.308</v>
+        <v>35.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.961</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.106</v>
+        <v>6.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.972</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.047</v>
+        <v>10.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.538</v>
+        <v>10.54</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.898</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.023</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.756</v>
+        <v>12.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.741</v>
+        <v>7.74</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.572</v>
+        <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.007</v>
+        <v>130.01</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>25.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.799</v>
+        <v>16.8</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.789</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.497</v>
+        <v>1.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.974</v>
+        <v>16.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.357</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.607</v>
+        <v>6.61</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.752</v>
+        <v>7.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.489</v>
+        <v>10.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.921</v>
+        <v>31.92</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.624</v>
+        <v>4.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.413</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44918.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.47</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>
